--- a/data/CS1/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2050.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resource-planning-v2\data\CS1\Market Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C43B632-F54B-4BEE-90B3-CD8C415918F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A90DA8-E555-411F-8995-9034105F56E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="2730" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2253,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <v>0.5</v>

--- a/data/CS1/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A90DA8-E555-411F-8995-9034105F56E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51571E13-849F-4421-858D-4E49CAC9D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28020" yWindow="2730" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26985" yWindow="3765" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2240,7 +2240,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2253,10 +2253,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D1" s="1">
         <v>0.5</v>

--- a/data/CS1/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51571E13-849F-4421-858D-4E49CAC9D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650AB0D-07B0-4B87-890F-32FCB03E5D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26985" yWindow="3765" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28020" yWindow="2730" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS1/Market Data/CS1_market_data_2050.xlsx
+++ b/data/CS1/Market Data/CS1_market_data_2050.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS1\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650AB0D-07B0-4B87-890F-32FCB03E5D6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59998F12-0C71-4C7B-86CB-532A5A0BA5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28020" yWindow="2730" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2240,7 +2240,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
